--- a/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
@@ -395,8 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="3">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -694,544 +693,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
     <col min="3" max="3" width="34.5703125" customWidth="1" style="2"/>
+    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
@@ -395,7 +395,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -693,502 +694,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
     <col min="3" max="3" width="34.5703125" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="D22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="D39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="D42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
@@ -22,7 +22,7 @@
     <t>Use this Ability to Perform an Attack against the Ground.</t>
   </si>
   <si>
-    <t>Используйте это способность, чтобы выполнить атаку по земле.</t>
+    <t>Используйте эту способность, чтобы выполнить атаку по земле.</t>
   </si>
   <si>
     <t>AbilityDefCAC_AttackGround.Description.Name</t>
@@ -693,17 +693,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1" style="2"/>
-    <col min="4" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="79.85546875" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -716,6 +716,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -727,6 +730,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -738,6 +744,9 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -749,6 +758,9 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -760,6 +772,9 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -771,6 +786,9 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -782,6 +800,9 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -793,6 +814,9 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -804,6 +828,9 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -815,6 +842,9 @@
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -826,6 +856,9 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -837,6 +870,9 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -848,6 +884,9 @@
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -859,6 +898,9 @@
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -870,6 +912,9 @@
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -881,6 +926,9 @@
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -892,6 +940,9 @@
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -903,6 +954,9 @@
       <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -914,6 +968,9 @@
       <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -925,6 +982,9 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -936,6 +996,9 @@
       <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -947,6 +1010,9 @@
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -958,6 +1024,9 @@
       <c r="C23" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -969,6 +1038,9 @@
       <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -980,6 +1052,9 @@
       <c r="C25" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -991,6 +1066,9 @@
       <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1002,6 +1080,9 @@
       <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -1013,6 +1094,9 @@
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -1024,6 +1108,9 @@
       <c r="C29" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -1035,6 +1122,9 @@
       <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -1046,6 +1136,9 @@
       <c r="C31" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -1057,6 +1150,9 @@
       <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -1068,6 +1164,9 @@
       <c r="C33" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -1079,6 +1178,9 @@
       <c r="C34" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -1090,6 +1192,9 @@
       <c r="C35" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -1101,6 +1206,9 @@
       <c r="C36" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -1112,6 +1220,9 @@
       <c r="C37" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -1123,6 +1234,9 @@
       <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -1134,6 +1248,9 @@
       <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -1145,6 +1262,9 @@
       <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -1156,6 +1276,9 @@
       <c r="C41" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -1167,6 +1290,9 @@
       <c r="C42" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -1178,6 +1304,9 @@
       <c r="C43" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -1188,6 +1317,9 @@
       </c>
       <c r="C44" s="2" t="s">
         <v>115</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carcam\Desktop\rt localization 060721\CustomLocalization\Localization\RogueTech\RU\Pilot Skills\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Localization'!$A$1:$E$44</definedName>
+  </definedNames>
+  <calcPr calcId="125725" refMode="R1C1" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -367,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -395,16 +403,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" quotePrefix="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,9 +500,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,6 +535,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -692,18 +711,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="79.85546875" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -766,10 +785,10 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
@@ -780,10 +799,10 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2">
@@ -794,10 +813,10 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2">
@@ -808,10 +827,10 @@
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2">
@@ -822,10 +841,10 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="2">
@@ -836,10 +855,10 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2">
@@ -850,10 +869,10 @@
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="2">
@@ -864,10 +883,10 @@
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="2">
@@ -878,10 +897,10 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2">
@@ -892,10 +911,10 @@
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2">
@@ -906,10 +925,10 @@
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2">
@@ -920,10 +939,10 @@
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2">
@@ -934,10 +953,10 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="2">
@@ -948,10 +967,10 @@
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="2">
@@ -962,10 +981,10 @@
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="2">
@@ -976,10 +995,10 @@
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="2">
@@ -990,10 +1009,10 @@
       <c r="A21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="2">
@@ -1004,10 +1023,10 @@
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="2">
@@ -1018,10 +1037,10 @@
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="2">
@@ -1032,10 +1051,10 @@
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="2">
@@ -1046,10 +1065,10 @@
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="2">
@@ -1060,10 +1079,10 @@
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="2">
@@ -1074,10 +1093,10 @@
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="2">
@@ -1088,10 +1107,10 @@
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="2">
@@ -1102,10 +1121,10 @@
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E29" s="2">
@@ -1116,10 +1135,10 @@
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E30" s="2">
@@ -1130,10 +1149,10 @@
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="2">
@@ -1144,10 +1163,10 @@
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="2">
@@ -1158,10 +1177,10 @@
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="2">
@@ -1172,10 +1191,10 @@
       <c r="A34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="2">
@@ -1186,10 +1205,10 @@
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="2">
@@ -1200,10 +1219,10 @@
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="2">
@@ -1214,10 +1233,10 @@
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E37" s="2">
@@ -1228,10 +1247,10 @@
       <c r="A38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E38" s="2">
@@ -1242,10 +1261,10 @@
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E39" s="2">
@@ -1256,10 +1275,10 @@
       <c r="A40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E40" s="2">
@@ -1270,10 +1289,10 @@
       <c r="A41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E41" s="2">
@@ -1284,10 +1303,10 @@
       <c r="A42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E42" s="2">
@@ -1298,10 +1317,10 @@
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E43" s="2">
@@ -1312,10 +1331,10 @@
       <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E44" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Pilot Skills/LocalizationDef.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carcam\Desktop\rt localization 060721\CustomLocalization\Localization\RogueTech\RU\Pilot Skills\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
@@ -375,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -468,7 +463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,10 +495,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +529,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -711,18 +704,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="79.85546875" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
